--- a/Data/g18.2.xlsx
+++ b/Data/g18.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0801D6BE-FA33-41AA-BB94-DF293A35449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39371599-2A8E-44ED-B0BC-AED1FD04BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F9CAEC3E-8D40-4646-A9EE-C277EAA00B0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sergipe</t>
   </si>
@@ -37,13 +37,89 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>31/12/2002</t>
+  </si>
+  <si>
+    <t>31/12/2003</t>
+  </si>
+  <si>
+    <t>31/12/2004</t>
+  </si>
+  <si>
+    <t>31/12/2005</t>
+  </si>
+  <si>
+    <t>31/12/2006</t>
+  </si>
+  <si>
+    <t>31/12/2007</t>
+  </si>
+  <si>
+    <t>31/12/2008</t>
+  </si>
+  <si>
+    <t>31/12/2009</t>
+  </si>
+  <si>
+    <t>31/12/2010</t>
+  </si>
+  <si>
+    <t>31/12/2011</t>
+  </si>
+  <si>
+    <t>31/12/2012</t>
+  </si>
+  <si>
+    <t>31/12/2013</t>
+  </si>
+  <si>
+    <t>31/12/2014</t>
+  </si>
+  <si>
+    <t>31/12/2015</t>
+  </si>
+  <si>
+    <t>31/12/2016</t>
+  </si>
+  <si>
+    <t>31/12/2017</t>
+  </si>
+  <si>
+    <t>31/12/2018</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +145,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,11 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CD1A4E-61D4-41F6-B10E-DB724DACF399}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -410,297 +496,311 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2002</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>809.62661216852894</v>
+        <v>266.87569733010423</v>
       </c>
       <c r="C2" s="1">
-        <v>741.36022327803857</v>
+        <v>244.37317596342098</v>
       </c>
       <c r="D2" s="1">
-        <v>853.14517586851719</v>
+        <v>346.75245357342442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2003</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>974.77468408491688</v>
+        <v>351.19691588659299</v>
       </c>
       <c r="C3" s="1">
-        <v>712.28633778231188</v>
+        <v>256.62624311190257</v>
       </c>
       <c r="D3" s="1">
-        <v>881.26039994562859</v>
+        <v>376.50959484870145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2004</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1016.0878850893441</v>
+        <v>393.90179651676596</v>
       </c>
       <c r="C4" s="1">
-        <v>800.94841738810237</v>
+        <v>310.49973644621571</v>
       </c>
       <c r="D4" s="1">
-        <v>1003.779172267317</v>
+        <v>431.44846980339884</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2005</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1011.8129661985115</v>
+        <v>414.5602424075098</v>
       </c>
       <c r="C5" s="1">
-        <v>858.5073127084662</v>
+        <v>351.74781462052897</v>
       </c>
       <c r="D5" s="1">
-        <v>1006.9227759378537</v>
+        <v>470.4280784203375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2006</v>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1033.1842038578059</v>
+        <v>436.61502606068723</v>
       </c>
       <c r="C6" s="1">
-        <v>909.53279897196091</v>
+        <v>384.36097381609443</v>
       </c>
       <c r="D6" s="1">
-        <v>1077.4363836754089</v>
+        <v>524.76049116284003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2007</v>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>1175.8403810593368</v>
+        <v>519.05045690835493</v>
       </c>
       <c r="C7" s="1">
-        <v>961.14623376367842</v>
+        <v>424.27815869134247</v>
       </c>
       <c r="D7" s="1">
-        <v>1104.2777457242391</v>
+        <v>580.78627388762834</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2008</v>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>1274.7986929830745</v>
+        <v>595.95017149118871</v>
       </c>
       <c r="C8" s="1">
-        <v>1016.5077840916697</v>
+        <v>475.20286268414128</v>
       </c>
       <c r="D8" s="1">
-        <v>1151.5409401275622</v>
+        <v>645.34237704342638</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2009</v>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>1236.722724407945</v>
+        <v>603.07801377920805</v>
       </c>
       <c r="C9" s="1">
-        <v>1078.0894525150643</v>
+        <v>525.72175869927105</v>
       </c>
       <c r="D9" s="1">
-        <v>1175.9636803325209</v>
+        <v>687.04143819048682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2010</v>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1346.6236203344174</v>
+        <v>695.47091749090248</v>
       </c>
       <c r="C10" s="1">
-        <v>1067.9470583705497</v>
+        <v>551.54692766508106</v>
       </c>
       <c r="D10" s="1">
-        <v>1175.9924756338075</v>
+        <v>727.00060617519102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2011</v>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1308.4216992043052</v>
+        <v>719.68717501094397</v>
       </c>
       <c r="C11" s="1">
-        <v>991.85016769393451</v>
+        <v>545.55946730008941</v>
       </c>
       <c r="D11" s="1">
-        <v>1084.73173166075</v>
+        <v>717.77987954843218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2012</v>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1336.4727613143591</v>
+        <v>778.03691330368702</v>
       </c>
       <c r="C12" s="1">
-        <v>961.35650912746587</v>
+        <v>559.66037812124694</v>
       </c>
       <c r="D12" s="1">
-        <v>1034.5948245799807</v>
+        <v>746.94742874206895</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2013</v>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>1157.45907369723</v>
+        <v>713.65038436437703</v>
       </c>
       <c r="C13" s="1">
-        <v>892.75669333022506</v>
+        <v>550.44378830939388</v>
       </c>
       <c r="D13" s="1">
-        <v>944.82635580533815</v>
+        <v>756.82514015706056</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2014</v>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>1057.3017342865533</v>
+        <v>693.66682609745158</v>
       </c>
       <c r="C14" s="1">
-        <v>879.48838015664137</v>
+        <v>577.00833496174209</v>
       </c>
       <c r="D14" s="1">
-        <v>1006.8753227446264</v>
+        <v>776.80843820874475</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2015</v>
+      <c r="A15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>867.48460602781176</v>
+        <v>629.87670993975269</v>
       </c>
       <c r="C15" s="1">
-        <v>729.1229613005687</v>
+        <v>529.41293576200701</v>
       </c>
       <c r="D15" s="1">
-        <v>856.68879913678973</v>
+        <v>735.46842190737004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2016</v>
+      <c r="A16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>813.8970202351519</v>
+        <v>628.1269379567392</v>
       </c>
       <c r="C16" s="1">
-        <v>678.08212052090619</v>
+        <v>523.31146994855885</v>
       </c>
       <c r="D16" s="1">
-        <v>779.65997749901385</v>
+        <v>721.75182928801394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2017</v>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>790.05117704343672</v>
+        <v>627.69498326031317</v>
       </c>
       <c r="C17" s="1">
-        <v>678.42502892691266</v>
+        <v>539.00810422087784</v>
       </c>
       <c r="D17" s="1">
-        <v>754.64262378583828</v>
+        <v>736.13208776311535</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2018</v>
+      <c r="A18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>816.32694774794777</v>
+        <v>672.86381609258501</v>
       </c>
       <c r="C18" s="1">
-        <v>692.02786523644204</v>
+        <v>570.40933357644144</v>
       </c>
       <c r="D18" s="1">
-        <v>736.75641696193793</v>
+        <v>754.66297672012968</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2019</v>
+      <c r="A19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>806.51210875167385</v>
+        <v>693.40002922794963</v>
       </c>
       <c r="C19" s="1">
-        <v>651.49810725012026</v>
+        <v>560.12650238867207</v>
       </c>
       <c r="D19" s="1">
-        <v>714.89565016640609</v>
+        <v>748.17319143475743</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2020</v>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>900.88533739591003</v>
+        <v>809.52695834434837</v>
       </c>
       <c r="C20" s="1">
-        <v>740.6637813552353</v>
+        <v>665.55339862616484</v>
       </c>
       <c r="D20" s="1">
-        <v>756.9394249114132</v>
+        <v>851.54854049314338</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2021</v>
+      <c r="A21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>898.60720677280563</v>
+        <v>888.72026043947449</v>
       </c>
       <c r="C21" s="1">
-        <v>708.56291520872844</v>
+        <v>700.76693553745861</v>
       </c>
       <c r="D21" s="1">
-        <v>726.2737241972311</v>
+        <v>934.11176992935691</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2022</v>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>963.68</v>
+        <v>1008.2134838409723</v>
       </c>
       <c r="C22" s="1">
-        <v>703.11777777777775</v>
+        <v>735.61018624839778</v>
       </c>
       <c r="D22" s="1">
-        <v>694.77</v>
+        <v>947.8064158996151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>988.71</v>
+      </c>
+      <c r="C23" s="1">
+        <v>755.26222222222214</v>
+      </c>
+      <c r="D23" s="1">
+        <v>991.72076923076929</v>
       </c>
     </row>
   </sheetData>
